--- a/names_translation_unaudited.xlsx
+++ b/names_translation_unaudited.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="352">
   <si>
     <t>Name in English</t>
   </si>
@@ -28,12 +28,15 @@
     <t>Translation type</t>
   </si>
   <si>
+    <t>TACITUS</t>
+  </si>
+  <si>
+    <t>Thomas Gordon</t>
+  </si>
+  <si>
     <t>Tacitus</t>
   </si>
   <si>
-    <t>Thomas Gordon</t>
-  </si>
-  <si>
     <t>the younger Pliny</t>
   </si>
   <si>
@@ -61,18 +64,21 @@
     <t>Teutonic nations</t>
   </si>
   <si>
+    <t>GERMANY</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
     <t>New York</t>
   </si>
   <si>
+    <t>Rome</t>
+  </si>
+  <si>
     <t>Britain</t>
   </si>
   <si>
-    <t>Rome</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
     <t>Mediterranean</t>
   </si>
   <si>
@@ -148,9 +154,6 @@
     <t>Gauls</t>
   </si>
   <si>
-    <t>_Germans_</t>
-  </si>
-  <si>
     <t>Asia</t>
   </si>
   <si>
@@ -160,163 +163,163 @@
     <t>Italy</t>
   </si>
   <si>
+    <t>Hercules</t>
+  </si>
+  <si>
+    <t>Ulysses</t>
+  </si>
+  <si>
+    <t>Laertes</t>
+  </si>
+  <si>
+    <t>Greek</t>
+  </si>
+  <si>
+    <t>Asciburgium</t>
+  </si>
+  <si>
+    <t>the Gods</t>
+  </si>
+  <si>
+    <t>The Germans</t>
+  </si>
+  <si>
+    <t>Noricum</t>
+  </si>
+  <si>
+    <t>Romans</t>
+  </si>
+  <si>
+    <t>Vespasian</t>
+  </si>
+  <si>
+    <t>_Veleda_</t>
+  </si>
+  <si>
+    <t>_Aurinia_</t>
+  </si>
+  <si>
+    <t>Mercury</t>
+  </si>
+  <si>
+    <t>Mars</t>
+  </si>
+  <si>
+    <t>_Isis_</t>
+  </si>
+  <si>
+    <t>Gods</t>
+  </si>
+  <si>
+    <t>Sarmatians</t>
+  </si>
+  <si>
+    <t>Parthians</t>
+  </si>
+  <si>
+    <t>Barbarians</t>
+  </si>
+  <si>
+    <t>Julius [Caesar]</t>
+  </si>
+  <si>
+    <t>Helvetians</t>
+  </si>
+  <si>
+    <t>Boians</t>
+  </si>
+  <si>
+    <t>Araviscans</t>
+  </si>
+  <si>
+    <t>Osians</t>
+  </si>
+  <si>
+    <t>Treverians</t>
+  </si>
+  <si>
+    <t>Nervians</t>
+  </si>
+  <si>
+    <t>Vangiones</t>
+  </si>
+  <si>
+    <t>Tribocians</t>
+  </si>
+  <si>
+    <t>Nemetes</t>
+  </si>
+  <si>
+    <t>Ubians</t>
+  </si>
+  <si>
+    <t>_Agrippinensians_</t>
+  </si>
+  <si>
+    <t>Hercynian Forest</t>
+  </si>
+  <si>
+    <t>Moenus</t>
+  </si>
+  <si>
+    <t>_Boiemum_</t>
+  </si>
+  <si>
+    <t>Batavians</t>
+  </si>
+  <si>
+    <t>Cattans</t>
+  </si>
+  <si>
+    <t>Roman People</t>
+  </si>
+  <si>
+    <t>Mattiacians</t>
+  </si>
+  <si>
+    <t>Roman Empire</t>
+  </si>
+  <si>
+    <t>Empire</t>
+  </si>
+  <si>
+    <t>Usipians</t>
+  </si>
+  <si>
+    <t>Tencterians</t>
+  </si>
+  <si>
+    <t>Bructerians</t>
+  </si>
+  <si>
+    <t>Chamavians</t>
+  </si>
+  <si>
+    <t>Angrivarians</t>
+  </si>
+  <si>
+    <t>Drusus</t>
+  </si>
+  <si>
+    <t>Dulgibinians</t>
+  </si>
+  <si>
+    <t>Chasuarians</t>
+  </si>
+  <si>
+    <t>Frisians</t>
+  </si>
+  <si>
+    <t>Chaucians</t>
+  </si>
+  <si>
+    <t>Frisia</t>
+  </si>
+  <si>
     <t>the Rhine</t>
   </si>
   <si>
-    <t>Hercules</t>
-  </si>
-  <si>
-    <t>Ulysses</t>
-  </si>
-  <si>
-    <t>Laertes</t>
-  </si>
-  <si>
-    <t>the people of Germany</t>
-  </si>
-  <si>
-    <t>Greek</t>
-  </si>
-  <si>
-    <t>Asciburgium</t>
-  </si>
-  <si>
-    <t>Gods</t>
-  </si>
-  <si>
-    <t>The Germans</t>
-  </si>
-  <si>
-    <t>Noricum</t>
-  </si>
-  <si>
-    <t>Romans</t>
-  </si>
-  <si>
-    <t>Vespasian</t>
-  </si>
-  <si>
-    <t>_Veleda_</t>
-  </si>
-  <si>
-    <t>_Aurinia_</t>
-  </si>
-  <si>
-    <t>Mercury</t>
-  </si>
-  <si>
-    <t>Mars</t>
-  </si>
-  <si>
-    <t>_Isis_</t>
-  </si>
-  <si>
-    <t>Sarmatians</t>
-  </si>
-  <si>
-    <t>Parthians</t>
-  </si>
-  <si>
-    <t>Barbarians</t>
-  </si>
-  <si>
-    <t>Julius [Caesar]</t>
-  </si>
-  <si>
-    <t>Helvetians</t>
-  </si>
-  <si>
-    <t>Boians</t>
-  </si>
-  <si>
-    <t>Araviscans</t>
-  </si>
-  <si>
-    <t>Osians</t>
-  </si>
-  <si>
-    <t>Treverians</t>
-  </si>
-  <si>
-    <t>Nervians</t>
-  </si>
-  <si>
-    <t>Vangiones</t>
-  </si>
-  <si>
-    <t>Tribocians</t>
-  </si>
-  <si>
-    <t>Nemetes</t>
-  </si>
-  <si>
-    <t>Ubians</t>
-  </si>
-  <si>
-    <t>_Agrippinensians_</t>
-  </si>
-  <si>
-    <t>Hercynian Forest</t>
-  </si>
-  <si>
-    <t>Moenus</t>
-  </si>
-  <si>
-    <t>_Boiemum_</t>
-  </si>
-  <si>
-    <t>Batavians</t>
-  </si>
-  <si>
-    <t>Cattans</t>
-  </si>
-  <si>
-    <t>Mattiacians</t>
-  </si>
-  <si>
-    <t>Roman People</t>
-  </si>
-  <si>
-    <t>Roman Empire</t>
-  </si>
-  <si>
-    <t>Empire</t>
-  </si>
-  <si>
-    <t>Usipians</t>
-  </si>
-  <si>
-    <t>Tencterians</t>
-  </si>
-  <si>
-    <t>Bructerians</t>
-  </si>
-  <si>
-    <t>Chamavians</t>
-  </si>
-  <si>
-    <t>Angrivarians</t>
-  </si>
-  <si>
-    <t>Drusus</t>
-  </si>
-  <si>
-    <t>Dulgibinians</t>
-  </si>
-  <si>
-    <t>Chasuarians</t>
-  </si>
-  <si>
-    <t>Frisians</t>
-  </si>
-  <si>
-    <t>Chaucians</t>
-  </si>
-  <si>
-    <t>Frisia</t>
-  </si>
-  <si>
-    <t>pillars of Hercules</t>
+    <t>the pillars of Hercules</t>
   </si>
   <si>
     <t>Cheruscans</t>
@@ -382,19 +385,16 @@
     <t>Carthaginians</t>
   </si>
   <si>
-    <t>Arsacides</t>
-  </si>
-  <si>
     <t>Spains</t>
   </si>
   <si>
-    <t>the Deity</t>
+    <t>East</t>
   </si>
   <si>
     <t>God</t>
   </si>
   <si>
-    <t>the supreme Governor of the world</t>
+    <t>Deity</t>
   </si>
   <si>
     <t>Semnones</t>
@@ -454,13 +454,13 @@
     <t>Elbe</t>
   </si>
   <si>
-    <t>_Castor_</t>
-  </si>
-  <si>
-    <t>_Pollux_</t>
-  </si>
-  <si>
-    <t>_Alcis_</t>
+    <t>Castor</t>
+  </si>
+  <si>
+    <t>Pollux</t>
+  </si>
+  <si>
+    <t>Alcis</t>
   </si>
   <si>
     <t>Marsignians</t>
@@ -496,6 +496,9 @@
     <t>Gothones</t>
   </si>
   <si>
+    <t>German</t>
+  </si>
+  <si>
     <t>Rugians</t>
   </si>
   <si>
@@ -505,18 +508,24 @@
     <t>Suiones</t>
   </si>
   <si>
+    <t>ocean</t>
+  </si>
+  <si>
+    <t>sea</t>
+  </si>
+  <si>
+    <t>rivers</t>
+  </si>
+  <si>
     <t>Mother of the Gods</t>
   </si>
   <si>
-    <t>AEstyan</t>
+    <t>AEstyan nations</t>
   </si>
   <si>
     <t>Suevian Sea</t>
   </si>
   <si>
-    <t>East</t>
-  </si>
-  <si>
     <t>West</t>
   </si>
   <si>
@@ -571,28 +580,28 @@
     <t>Монтен</t>
   </si>
   <si>
-    <t>тевтонски народи</t>
+    <t>германските народи</t>
+  </si>
+  <si>
+    <t>Германия</t>
   </si>
   <si>
     <t>Ню Йорк</t>
   </si>
   <si>
-    <t>Британия</t>
-  </si>
-  <si>
     <t>Рим</t>
   </si>
   <si>
-    <t>Германия</t>
-  </si>
-  <si>
-    <t>Средиземноморие</t>
+    <t>Великобритания</t>
+  </si>
+  <si>
+    <t>Средиземноморието</t>
   </si>
   <si>
     <t>Галия</t>
   </si>
   <si>
-    <t>Ретия</t>
+    <t>Реция</t>
   </si>
   <si>
     <t>Панония</t>
@@ -613,13 +622,13 @@
     <t>Северен океан</t>
   </si>
   <si>
-    <t>Ретийски Алпи</t>
+    <t>Рецийски Алпи</t>
   </si>
   <si>
     <t>Абноба</t>
   </si>
   <si>
-    <t>Понт Евксински</t>
+    <t>Черно море</t>
   </si>
   <si>
     <t>Фени</t>
@@ -631,34 +640,34 @@
     <t>Манус</t>
   </si>
   <si>
-    <t>Германи</t>
-  </si>
-  <si>
-    <t>Ингвеони</t>
-  </si>
-  <si>
-    <t>Херминони</t>
-  </si>
-  <si>
-    <t>Инствеони</t>
-  </si>
-  <si>
-    <t>Марси</t>
-  </si>
-  <si>
-    <t>Гамбривии</t>
-  </si>
-  <si>
-    <t>Свеви</t>
-  </si>
-  <si>
-    <t>Вандали</t>
-  </si>
-  <si>
-    <t>Тунгри</t>
-  </si>
-  <si>
-    <t>Гали</t>
+    <t>германци</t>
+  </si>
+  <si>
+    <t>ингевони</t>
+  </si>
+  <si>
+    <t>херминони</t>
+  </si>
+  <si>
+    <t>инстевони</t>
+  </si>
+  <si>
+    <t>марси</t>
+  </si>
+  <si>
+    <t>гамбривии</t>
+  </si>
+  <si>
+    <t>свеви</t>
+  </si>
+  <si>
+    <t>вандали</t>
+  </si>
+  <si>
+    <t>тунгри</t>
+  </si>
+  <si>
+    <t>гали</t>
   </si>
   <si>
     <t>Азия</t>
@@ -679,55 +688,55 @@
     <t>Лаерт</t>
   </si>
   <si>
-    <t>народът на Германия</t>
-  </si>
-  <si>
     <t>грък</t>
   </si>
   <si>
     <t>Аскибургиум</t>
   </si>
   <si>
+    <t>боговете</t>
+  </si>
+  <si>
+    <t>германците</t>
+  </si>
+  <si>
+    <t>Норик</t>
+  </si>
+  <si>
+    <t>римляни</t>
+  </si>
+  <si>
+    <t>Веспасиан</t>
+  </si>
+  <si>
+    <t>Веледа</t>
+  </si>
+  <si>
+    <t>Авриния</t>
+  </si>
+  <si>
+    <t>Меркурий</t>
+  </si>
+  <si>
+    <t>Марс</t>
+  </si>
+  <si>
+    <t>Изида</t>
+  </si>
+  <si>
     <t>богове</t>
   </si>
   <si>
-    <t>германците</t>
-  </si>
-  <si>
-    <t>Норикум</t>
-  </si>
-  <si>
-    <t>римляни</t>
-  </si>
-  <si>
-    <t>Веспасиан</t>
-  </si>
-  <si>
-    <t>Веледа</t>
-  </si>
-  <si>
-    <t>Ауриния</t>
-  </si>
-  <si>
-    <t>Меркурий</t>
-  </si>
-  <si>
-    <t>Марс</t>
-  </si>
-  <si>
-    <t>Изида</t>
-  </si>
-  <si>
-    <t>сармати</t>
-  </si>
-  <si>
-    <t>партяни</t>
-  </si>
-  <si>
-    <t>варвари</t>
-  </si>
-  <si>
-    <t>Юлий Цезар</t>
+    <t>Сармати</t>
+  </si>
+  <si>
+    <t>Партяни</t>
+  </si>
+  <si>
+    <t>Варвари</t>
+  </si>
+  <si>
+    <t>Юлий [Цезар]</t>
   </si>
   <si>
     <t>Хелвети</t>
@@ -760,34 +769,31 @@
     <t>Убии</t>
   </si>
   <si>
-    <t>Агрипиненси</t>
+    <t>Агрипиненци</t>
   </si>
   <si>
     <t>Херцинска гора</t>
   </si>
   <si>
-    <t>Майн</t>
-  </si>
-  <si>
-    <t>Бохемия</t>
-  </si>
-  <si>
-    <t>Батави</t>
-  </si>
-  <si>
-    <t>Хати</t>
-  </si>
-  <si>
-    <t>Матиаци</t>
-  </si>
-  <si>
-    <t>Римски народ</t>
+    <t>Моенус</t>
+  </si>
+  <si>
+    <t>Боемум</t>
+  </si>
+  <si>
+    <t>батави</t>
+  </si>
+  <si>
+    <t>катанци</t>
+  </si>
+  <si>
+    <t>матиаци</t>
   </si>
   <si>
     <t>Римска империя</t>
   </si>
   <si>
-    <t>Империя</t>
+    <t>империя</t>
   </si>
   <si>
     <t>Узипети</t>
@@ -802,16 +808,16 @@
     <t>Хамави</t>
   </si>
   <si>
-    <t>Ангривари</t>
+    <t>Ангриварии</t>
   </si>
   <si>
     <t>Друз</t>
   </si>
   <si>
-    <t>Дулгибини</t>
-  </si>
-  <si>
-    <t>Хасуарии</t>
+    <t>Дулгубни</t>
+  </si>
+  <si>
+    <t>Хасуари</t>
   </si>
   <si>
     <t>Фризи</t>
@@ -823,13 +829,13 @@
     <t>Фризия</t>
   </si>
   <si>
-    <t>Херкулесовите стълбове</t>
-  </si>
-  <si>
-    <t>Херуски</t>
-  </si>
-  <si>
-    <t>Фозианци</t>
+    <t>Херкулесови стълбове</t>
+  </si>
+  <si>
+    <t>Херуските</t>
+  </si>
+  <si>
+    <t>Фози</t>
   </si>
   <si>
     <t>Цецилий Метел</t>
@@ -889,22 +895,19 @@
     <t>Картагенци</t>
   </si>
   <si>
-    <t>Аршакиди</t>
-  </si>
-  <si>
-    <t>Испании</t>
-  </si>
-  <si>
-    <t>Божеството</t>
+    <t>Двете Испании</t>
+  </si>
+  <si>
+    <t>Изток</t>
   </si>
   <si>
     <t>Бог</t>
   </si>
   <si>
-    <t>Върховният управител на света</t>
-  </si>
-  <si>
-    <t>Семнони</t>
+    <t>божество</t>
+  </si>
+  <si>
+    <t>семнони</t>
   </si>
   <si>
     <t>Хертум</t>
@@ -928,7 +931,7 @@
     <t>Варини</t>
   </si>
   <si>
-    <t>Еудоси</t>
+    <t>Еудози</t>
   </si>
   <si>
     <t>Суардони</t>
@@ -949,7 +952,7 @@
     <t>Хермундури</t>
   </si>
   <si>
-    <t>Наристи</t>
+    <t>Нарисци</t>
   </si>
   <si>
     <t>Маркомани</t>
@@ -976,13 +979,13 @@
     <t>Готини</t>
   </si>
   <si>
-    <t>Бури</t>
+    <t>Бурии</t>
   </si>
   <si>
     <t>Луги</t>
   </si>
   <si>
-    <t>Арии</t>
+    <t>Харии</t>
   </si>
   <si>
     <t>Хелвекони</t>
@@ -991,37 +994,46 @@
     <t>Маними</t>
   </si>
   <si>
-    <t>Елизии</t>
+    <t>Хелисии</t>
   </si>
   <si>
     <t>Нахарвали</t>
   </si>
   <si>
-    <t>Свевия</t>
+    <t>Свебия</t>
   </si>
   <si>
     <t>Готони</t>
   </si>
   <si>
+    <t>Германец</t>
+  </si>
+  <si>
     <t>Руги</t>
   </si>
   <si>
-    <t>Лемови</t>
+    <t>Лемовии</t>
   </si>
   <si>
     <t>Суиони</t>
   </si>
   <si>
-    <t>Майка на боговете</t>
-  </si>
-  <si>
-    <t>Естии</t>
+    <t>океан</t>
+  </si>
+  <si>
+    <t>море</t>
+  </si>
+  <si>
+    <t>реки</t>
+  </si>
+  <si>
+    <t>Майката на боговете</t>
+  </si>
+  <si>
+    <t>Естийски народи</t>
   </si>
   <si>
     <t>Свебско море</t>
-  </si>
-  <si>
-    <t>Изток</t>
   </si>
   <si>
     <t>Запад</t>
@@ -1415,7 +1427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D172"/>
+  <dimension ref="A1:D175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1440,13 +1452,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C2" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D2" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1454,13 +1466,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C3" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D3" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1468,13 +1480,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C4" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D4" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1482,13 +1494,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C5" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D5" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1496,13 +1508,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C6" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D6" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1510,13 +1522,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1524,13 +1536,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C8" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D8" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1538,13 +1550,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C9" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D9" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1552,13 +1564,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C10" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D10" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1566,13 +1578,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C11" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D11" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1580,13 +1592,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C12" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D12" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1594,13 +1606,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C13" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D13" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1608,13 +1620,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C14" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D14" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1622,13 +1634,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C15" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D15" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1636,13 +1648,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C16" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D16" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1650,13 +1662,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C17" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D17" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1664,13 +1676,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C18" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D18" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1678,13 +1690,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C19" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D19" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1692,13 +1704,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C20" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D20" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1706,13 +1718,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C21" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D21" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1720,13 +1732,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C22" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D22" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1734,13 +1746,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C23" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D23" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1748,13 +1760,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C24" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D24" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1762,13 +1774,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C25" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D25" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1776,13 +1788,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C26" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D26" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1790,13 +1802,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C27" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D27" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1804,13 +1816,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C28" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D28" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1818,13 +1830,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C29" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D29" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1832,13 +1844,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C30" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="D30" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1846,13 +1858,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C31" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="D31" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1860,13 +1872,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C32" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D32" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1874,13 +1886,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C33" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D33" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1888,13 +1900,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C34" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D34" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1902,13 +1914,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C35" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D35" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1916,13 +1928,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C36" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D36" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1930,13 +1942,13 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C37" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D37" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1944,13 +1956,13 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C38" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D38" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1958,13 +1970,13 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C39" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D39" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1972,13 +1984,13 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C40" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D40" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1986,13 +1998,13 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C41" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D41" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2000,13 +2012,13 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="C42" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D42" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2014,13 +2026,13 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C43" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D43" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2028,13 +2040,13 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C44" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D44" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2042,13 +2054,13 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C45" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D45" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2056,13 +2068,13 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="C46" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D46" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2070,13 +2082,13 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C47" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D47" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2084,13 +2096,13 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C48" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D48" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2098,13 +2110,13 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C49" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D49" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2112,13 +2124,13 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C50" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D50" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2126,13 +2138,13 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C51" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D51" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2140,13 +2152,13 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C52" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D52" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2154,13 +2166,13 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C53" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="D53" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2168,13 +2180,13 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C54" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D54" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2182,13 +2194,13 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C55" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D55" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2196,13 +2208,13 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C56" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D56" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2210,13 +2222,13 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C57" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D57" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2224,13 +2236,13 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C58" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D58" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2238,13 +2250,13 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C59" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D59" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2252,13 +2264,13 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C60" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D60" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2266,13 +2278,13 @@
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C61" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D61" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2280,13 +2292,13 @@
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C62" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D62" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2294,13 +2306,13 @@
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C63" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D63" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2308,13 +2320,13 @@
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C64" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D64" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2322,13 +2334,13 @@
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C65" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D65" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2336,13 +2348,13 @@
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C66" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D66" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2350,13 +2362,13 @@
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C67" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D67" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2364,13 +2376,13 @@
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C68" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D68" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2378,13 +2390,13 @@
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C69" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D69" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2392,13 +2404,13 @@
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C70" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D70" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2406,13 +2418,13 @@
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C71" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D71" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2420,13 +2432,13 @@
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C72" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D72" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2434,13 +2446,13 @@
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C73" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D73" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2448,13 +2460,13 @@
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C74" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D74" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2462,13 +2474,13 @@
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C75" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D75" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2476,13 +2488,13 @@
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C76" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D76" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2490,13 +2502,13 @@
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C77" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D77" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2504,13 +2516,13 @@
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C78" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D78" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2518,13 +2530,13 @@
         <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C79" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D79" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2532,13 +2544,13 @@
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C80" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D80" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2546,13 +2558,13 @@
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C81" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D81" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2560,13 +2572,13 @@
         <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C82" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D82" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2574,13 +2586,13 @@
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="C83" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D83" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2588,13 +2600,13 @@
         <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C84" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D84" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2602,13 +2614,13 @@
         <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C85" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D85" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2616,13 +2628,13 @@
         <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C86" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D86" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2630,13 +2642,13 @@
         <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C87" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D87" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2644,13 +2656,13 @@
         <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C88" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D88" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2658,13 +2670,13 @@
         <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C89" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D89" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2672,13 +2684,13 @@
         <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C90" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D90" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2686,13 +2698,13 @@
         <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C91" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D91" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2700,13 +2712,13 @@
         <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C92" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D92" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2714,13 +2726,13 @@
         <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C93" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D93" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2728,13 +2740,13 @@
         <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C94" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D94" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2742,13 +2754,13 @@
         <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C95" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D95" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2756,13 +2768,13 @@
         <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C96" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D96" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2770,13 +2782,13 @@
         <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C97" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D97" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2784,13 +2796,13 @@
         <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>269</v>
+        <v>197</v>
       </c>
       <c r="C98" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D98" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2798,13 +2810,13 @@
         <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C99" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D99" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2812,13 +2824,13 @@
         <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C100" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D100" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2826,13 +2838,13 @@
         <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C101" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="D101" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2840,13 +2852,13 @@
         <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C102" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D102" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2854,13 +2866,13 @@
         <v>105</v>
       </c>
       <c r="B103" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C103" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D103" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2868,13 +2880,13 @@
         <v>106</v>
       </c>
       <c r="B104" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C104" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D104" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2882,13 +2894,13 @@
         <v>107</v>
       </c>
       <c r="B105" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C105" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D105" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2896,13 +2908,13 @@
         <v>108</v>
       </c>
       <c r="B106" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C106" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D106" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2910,13 +2922,13 @@
         <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C107" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D107" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2924,13 +2936,13 @@
         <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C108" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D108" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2938,13 +2950,13 @@
         <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C109" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D109" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2952,13 +2964,13 @@
         <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C110" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D110" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2966,13 +2978,13 @@
         <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C111" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D111" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2980,13 +2992,13 @@
         <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C112" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D112" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2994,13 +3006,13 @@
         <v>115</v>
       </c>
       <c r="B113" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C113" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D113" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3008,13 +3020,13 @@
         <v>116</v>
       </c>
       <c r="B114" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C114" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D114" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3022,13 +3034,13 @@
         <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C115" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D115" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3036,13 +3048,13 @@
         <v>118</v>
       </c>
       <c r="B116" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C116" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D116" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3050,13 +3062,13 @@
         <v>119</v>
       </c>
       <c r="B117" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C117" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D117" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3064,13 +3076,13 @@
         <v>120</v>
       </c>
       <c r="B118" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C118" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D118" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3078,13 +3090,13 @@
         <v>121</v>
       </c>
       <c r="B119" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C119" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D119" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3092,13 +3104,13 @@
         <v>122</v>
       </c>
       <c r="B120" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C120" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D120" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3106,13 +3118,13 @@
         <v>123</v>
       </c>
       <c r="B121" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C121" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D121" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3120,13 +3132,13 @@
         <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C122" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="D122" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3134,13 +3146,13 @@
         <v>125</v>
       </c>
       <c r="B123" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C123" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D123" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3148,13 +3160,13 @@
         <v>126</v>
       </c>
       <c r="B124" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C124" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D124" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3162,13 +3174,13 @@
         <v>127</v>
       </c>
       <c r="B125" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C125" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D125" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3176,13 +3188,13 @@
         <v>128</v>
       </c>
       <c r="B126" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C126" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D126" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3190,13 +3202,13 @@
         <v>129</v>
       </c>
       <c r="B127" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C127" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D127" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3204,13 +3216,13 @@
         <v>130</v>
       </c>
       <c r="B128" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C128" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D128" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3218,13 +3230,13 @@
         <v>131</v>
       </c>
       <c r="B129" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C129" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D129" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3232,13 +3244,13 @@
         <v>132</v>
       </c>
       <c r="B130" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C130" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D130" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3246,13 +3258,13 @@
         <v>133</v>
       </c>
       <c r="B131" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C131" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D131" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3260,13 +3272,13 @@
         <v>134</v>
       </c>
       <c r="B132" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C132" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D132" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3274,13 +3286,13 @@
         <v>135</v>
       </c>
       <c r="B133" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C133" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D133" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3288,13 +3300,13 @@
         <v>136</v>
       </c>
       <c r="B134" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C134" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D134" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3302,13 +3314,13 @@
         <v>137</v>
       </c>
       <c r="B135" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C135" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D135" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3316,13 +3328,13 @@
         <v>138</v>
       </c>
       <c r="B136" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C136" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D136" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3330,13 +3342,13 @@
         <v>139</v>
       </c>
       <c r="B137" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C137" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D137" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3344,13 +3356,13 @@
         <v>140</v>
       </c>
       <c r="B138" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C138" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D138" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3358,13 +3370,13 @@
         <v>141</v>
       </c>
       <c r="B139" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C139" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D139" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3372,13 +3384,13 @@
         <v>142</v>
       </c>
       <c r="B140" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C140" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D140" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3386,13 +3398,13 @@
         <v>143</v>
       </c>
       <c r="B141" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C141" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D141" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3400,13 +3412,13 @@
         <v>144</v>
       </c>
       <c r="B142" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C142" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D142" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3414,13 +3426,13 @@
         <v>145</v>
       </c>
       <c r="B143" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C143" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D143" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3428,13 +3440,13 @@
         <v>146</v>
       </c>
       <c r="B144" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C144" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D144" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3442,13 +3454,13 @@
         <v>147</v>
       </c>
       <c r="B145" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C145" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D145" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3456,13 +3468,13 @@
         <v>148</v>
       </c>
       <c r="B146" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C146" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D146" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3470,13 +3482,13 @@
         <v>149</v>
       </c>
       <c r="B147" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C147" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D147" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3484,13 +3496,13 @@
         <v>150</v>
       </c>
       <c r="B148" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C148" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D148" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3498,13 +3510,13 @@
         <v>151</v>
       </c>
       <c r="B149" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C149" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D149" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3512,13 +3524,13 @@
         <v>152</v>
       </c>
       <c r="B150" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C150" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D150" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3526,13 +3538,13 @@
         <v>153</v>
       </c>
       <c r="B151" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C151" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D151" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3540,13 +3552,13 @@
         <v>154</v>
       </c>
       <c r="B152" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C152" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D152" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3554,13 +3566,13 @@
         <v>155</v>
       </c>
       <c r="B153" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C153" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D153" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3568,13 +3580,13 @@
         <v>156</v>
       </c>
       <c r="B154" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C154" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D154" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3582,13 +3594,13 @@
         <v>157</v>
       </c>
       <c r="B155" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C155" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D155" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3596,13 +3608,13 @@
         <v>158</v>
       </c>
       <c r="B156" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C156" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D156" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3610,13 +3622,13 @@
         <v>159</v>
       </c>
       <c r="B157" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C157" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D157" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3624,13 +3636,13 @@
         <v>160</v>
       </c>
       <c r="B158" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C158" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D158" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3638,13 +3650,13 @@
         <v>161</v>
       </c>
       <c r="B159" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C159" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D159" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3652,13 +3664,13 @@
         <v>162</v>
       </c>
       <c r="B160" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C160" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D160" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3666,13 +3678,13 @@
         <v>163</v>
       </c>
       <c r="B161" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C161" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="D161" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3680,13 +3692,13 @@
         <v>164</v>
       </c>
       <c r="B162" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C162" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D162" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3694,13 +3706,13 @@
         <v>165</v>
       </c>
       <c r="B163" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C163" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D163" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3708,13 +3720,13 @@
         <v>166</v>
       </c>
       <c r="B164" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C164" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D164" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3722,13 +3734,13 @@
         <v>167</v>
       </c>
       <c r="B165" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C165" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D165" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3736,13 +3748,13 @@
         <v>168</v>
       </c>
       <c r="B166" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C166" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D166" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3750,13 +3762,13 @@
         <v>169</v>
       </c>
       <c r="B167" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C167" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D167" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3764,13 +3776,13 @@
         <v>170</v>
       </c>
       <c r="B168" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C168" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D168" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3778,13 +3790,13 @@
         <v>171</v>
       </c>
       <c r="B169" t="s">
-        <v>202</v>
+        <v>341</v>
       </c>
       <c r="C169" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D169" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3792,13 +3804,13 @@
         <v>172</v>
       </c>
       <c r="B170" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C170" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D170" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3806,13 +3818,13 @@
         <v>173</v>
       </c>
       <c r="B171" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C171" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D171" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3820,13 +3832,55 @@
         <v>174</v>
       </c>
       <c r="B172" t="s">
-        <v>342</v>
+        <v>205</v>
       </c>
       <c r="C172" t="s">
+        <v>348</v>
+      </c>
+      <c r="D172" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>175</v>
+      </c>
+      <c r="B173" t="s">
         <v>344</v>
       </c>
-      <c r="D172" t="s">
+      <c r="C173" t="s">
+        <v>348</v>
+      </c>
+      <c r="D173" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>176</v>
+      </c>
+      <c r="B174" t="s">
+        <v>345</v>
+      </c>
+      <c r="C174" t="s">
+        <v>348</v>
+      </c>
+      <c r="D174" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>177</v>
+      </c>
+      <c r="B175" t="s">
         <v>346</v>
+      </c>
+      <c r="C175" t="s">
+        <v>348</v>
+      </c>
+      <c r="D175" t="s">
+        <v>350</v>
       </c>
     </row>
   </sheetData>
